--- a/data/spreadsheets/Event.xlsx
+++ b/data/spreadsheets/Event.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47337CB1-8902-EB47-8053-AEAC0A4326FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F731B6-7732-C249-A7C9-15FC555825C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="258">
   <si>
     <t>ID</t>
   </si>
@@ -793,6 +793,12 @@
   </si>
   <si>
     <t>Alice attends a disorganized data synchronization event in DaSCHland, where the Red Node and White Interface attempt to integrate data streams but create chaos.</t>
+  </si>
+  <si>
+    <t>Authorship Resource</t>
+  </si>
+  <si>
+    <t>Daniela Subotic, Noémi Villars-Amberg</t>
   </si>
 </sst>
 </file>
@@ -1079,9 +1085,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M52" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:M52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N52" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:N52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
@@ -1095,6 +1101,7 @@
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Adventure Character ID"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Image ID"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Chapter"/>
+    <tableColumn id="14" xr3:uid="{ED4963C1-61C8-584C-8FDA-7B7FE9D7075A}" name="Authorship Resource"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1281,9 +1288,9 @@
   </sheetPr>
   <dimension ref="A1:N216"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -1343,7 +1350,9 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20"/>
+      <c r="N1" s="20" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="2" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
@@ -1375,7 +1384,9 @@
       <c r="M2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1409,7 +1420,9 @@
       <c r="M3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1443,7 +1456,9 @@
       <c r="M4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="5" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
@@ -1475,7 +1490,9 @@
       <c r="M5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1509,7 +1526,9 @@
       <c r="M6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -1543,7 +1562,9 @@
       <c r="M7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1577,7 +1598,9 @@
       <c r="M8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
@@ -1611,7 +1634,9 @@
       <c r="M9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -1645,7 +1670,9 @@
       <c r="M10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
@@ -1679,7 +1706,9 @@
       <c r="M11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
@@ -1713,7 +1742,9 @@
       <c r="M12" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
@@ -1745,7 +1776,9 @@
       <c r="M13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
@@ -1779,7 +1812,9 @@
       <c r="M14" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
@@ -1813,7 +1848,9 @@
       <c r="M15" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
@@ -1847,9 +1884,11 @@
       <c r="M16" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N16" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>104</v>
       </c>
@@ -1881,8 +1920,11 @@
       <c r="M17" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N17" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>110</v>
       </c>
@@ -1914,8 +1956,11 @@
       <c r="M18" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N18" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>116</v>
       </c>
@@ -1945,8 +1990,11 @@
       <c r="M19" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N19" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>121</v>
       </c>
@@ -1978,8 +2026,11 @@
       <c r="M20" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N20" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>128</v>
       </c>
@@ -2011,8 +2062,11 @@
       <c r="M21" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N21" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>135</v>
       </c>
@@ -2044,8 +2098,11 @@
       <c r="M22" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N22" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>140</v>
       </c>
@@ -2075,8 +2132,11 @@
       <c r="M23" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N23" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>146</v>
       </c>
@@ -2108,8 +2168,11 @@
       <c r="M24" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N24" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>150</v>
       </c>
@@ -2141,8 +2204,11 @@
       <c r="M25" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N25" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>155</v>
       </c>
@@ -2170,8 +2236,11 @@
       <c r="M26" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N26" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>159</v>
       </c>
@@ -2201,8 +2270,11 @@
       <c r="M27" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N27" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>163</v>
       </c>
@@ -2234,8 +2306,11 @@
       <c r="M28" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N28" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>168</v>
       </c>
@@ -2267,8 +2342,11 @@
       <c r="M29" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N29" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>173</v>
       </c>
@@ -2300,8 +2378,11 @@
       <c r="M30" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N30" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
         <v>178</v>
       </c>
@@ -2331,8 +2412,11 @@
       <c r="M31" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N31" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>182</v>
       </c>
@@ -2362,8 +2446,11 @@
       <c r="M32" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>185</v>
       </c>
@@ -2395,8 +2482,11 @@
       <c r="M33" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N33" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>189</v>
       </c>
@@ -2426,8 +2516,11 @@
       <c r="M34" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N34" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>192</v>
       </c>
@@ -2459,8 +2552,11 @@
       <c r="M35" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N35" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
         <v>198</v>
       </c>
@@ -2490,8 +2586,11 @@
       <c r="M36" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N36" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
         <v>201</v>
       </c>
@@ -2521,8 +2620,11 @@
       <c r="M37" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N37" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>204</v>
       </c>
@@ -2554,8 +2656,11 @@
       <c r="M38" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" s="1" customFormat="1" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N38" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>211</v>
       </c>
@@ -2587,8 +2692,11 @@
       <c r="M39" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" s="1" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N39" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>215</v>
       </c>
@@ -2618,8 +2726,11 @@
       <c r="M40" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N40" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>220</v>
       </c>
@@ -2645,8 +2756,11 @@
       <c r="M41" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N41" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
         <v>223</v>
       </c>
@@ -2674,8 +2788,11 @@
       <c r="M42" s="3" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N42" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
         <v>226</v>
       </c>
@@ -2701,8 +2818,11 @@
       <c r="M43" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N43" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>229</v>
       </c>
@@ -2730,8 +2850,11 @@
       <c r="M44" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" s="1" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N44" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>232</v>
       </c>
@@ -2759,8 +2882,11 @@
       <c r="M45" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N45" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
         <v>235</v>
       </c>
@@ -2786,8 +2912,11 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N46" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>238</v>
       </c>
@@ -2811,8 +2940,11 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N47" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>241</v>
       </c>
@@ -2838,8 +2970,11 @@
       <c r="M48" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N48" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>244</v>
       </c>
@@ -2867,8 +3002,11 @@
       <c r="M49" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N49" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
         <v>247</v>
       </c>
@@ -2896,8 +3034,11 @@
       <c r="M50" s="3" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N50" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
         <v>250</v>
       </c>
@@ -2923,8 +3064,11 @@
       <c r="M51" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N51" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
         <v>253</v>
       </c>
@@ -2951,6 +3095,9 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
         <v>139</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/data/spreadsheets/Event.xlsx
+++ b/data/spreadsheets/Event.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F731B6-7732-C249-A7C9-15FC555825C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7121B7-0AC3-F64C-8B43-2BF13C518BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24400" yWindow="500" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="260">
   <si>
     <t>ID</t>
   </si>
@@ -799,6 +799,12 @@
   </si>
   <si>
     <t>Daniela Subotic, Noémi Villars-Amberg</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -1289,8 +1295,8 @@
   <dimension ref="A1:N216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -1371,8 +1377,8 @@
         <v>17</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3">
-        <v>1</v>
+      <c r="G2" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1405,8 +1411,8 @@
         <v>23</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <v>0</v>
+      <c r="G3" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1441,8 +1447,8 @@
         <v>23</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>1</v>
+      <c r="G4" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1479,7 +1485,9 @@
       <c r="F5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H5" s="3">
         <v>6</v>
       </c>
@@ -1511,8 +1519,8 @@
         <v>41</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>1</v>
+      <c r="G6" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1549,7 +1557,9 @@
       <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H7" s="3">
         <v>2</v>
       </c>
@@ -1583,8 +1593,8 @@
         <v>23</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1621,7 +1631,9 @@
       <c r="F9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H9" s="3">
         <v>4</v>
       </c>
@@ -1657,7 +1669,9 @@
       <c r="F10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
@@ -1693,7 +1707,9 @@
       <c r="F11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H11" s="3">
         <v>3</v>
       </c>
@@ -1727,7 +1743,9 @@
         <v>77</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="7" t="s">
         <v>78</v>
@@ -1763,8 +1781,8 @@
         <v>85</v>
       </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>0</v>
+      <c r="G13" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1797,8 +1815,8 @@
         <v>23</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1833,7 +1851,9 @@
         <v>95</v>
       </c>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="7" t="s">
         <v>24</v>
@@ -1869,8 +1889,8 @@
         <v>102</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3">
-        <v>0</v>
+      <c r="G16" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1905,7 +1925,9 @@
         <v>95</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="7" t="s">
         <v>107</v>
@@ -1943,7 +1965,9 @@
       <c r="F18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H18" s="3">
         <v>2</v>
       </c>
@@ -1977,7 +2001,9 @@
         <v>77</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="7" t="s">
         <v>24</v>
@@ -2011,7 +2037,9 @@
         <v>95</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="7" t="s">
         <v>124</v>
@@ -2049,7 +2077,9 @@
       <c r="F21" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H21" s="3">
         <v>2</v>
       </c>
@@ -2083,8 +2113,8 @@
         <v>102</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -2121,7 +2151,9 @@
       <c r="F23" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H23" s="3">
         <v>3</v>
       </c>
@@ -2155,7 +2187,9 @@
       <c r="F24" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H24" s="3">
         <v>3</v>
       </c>
@@ -2189,8 +2223,8 @@
         <v>85</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3">
-        <v>0</v>
+      <c r="G25" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -2225,7 +2259,9 @@
         <v>23</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H26" s="3">
         <v>1</v>
       </c>
@@ -2259,7 +2295,9 @@
       <c r="F27" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H27" s="3">
         <v>2</v>
       </c>
@@ -2293,7 +2331,9 @@
       <c r="F28" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H28" s="3">
         <v>2</v>
       </c>
@@ -2329,7 +2369,9 @@
       <c r="F29" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H29" s="3">
         <v>3</v>
       </c>
@@ -2365,7 +2407,9 @@
       <c r="F30" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H30" s="3">
         <v>2</v>
       </c>
@@ -2401,7 +2445,9 @@
       <c r="F31" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H31" s="3">
         <v>2</v>
       </c>
@@ -2435,7 +2481,9 @@
       <c r="F32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H32" s="3">
         <v>2</v>
       </c>
@@ -2467,8 +2515,8 @@
         <v>41</v>
       </c>
       <c r="F33" s="6"/>
-      <c r="G33" s="3">
-        <v>1</v>
+      <c r="G33" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2503,8 +2551,8 @@
         <v>41</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="3">
-        <v>1</v>
+      <c r="G34" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -2537,7 +2585,9 @@
         <v>77</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H35" s="3"/>
       <c r="I35" s="7" t="s">
         <v>24</v>
@@ -2573,8 +2623,8 @@
         <v>41</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="3">
-        <v>1</v>
+      <c r="G36" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -2607,7 +2657,9 @@
         <v>95</v>
       </c>
       <c r="F37" s="6"/>
-      <c r="G37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="7" t="s">
         <v>24</v>
@@ -2641,7 +2693,9 @@
         <v>207</v>
       </c>
       <c r="F38" s="6"/>
-      <c r="G38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="7" t="s">
         <v>24</v>
@@ -2679,7 +2733,9 @@
       <c r="F39" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H39" s="3">
         <v>2</v>
       </c>
@@ -2713,8 +2769,8 @@
         <v>23</v>
       </c>
       <c r="F40" s="6"/>
-      <c r="G40" s="3">
-        <v>1</v>
+      <c r="G40" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -2747,7 +2803,9 @@
         <v>23</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -2777,7 +2835,9 @@
         <v>143</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H42" s="3">
         <v>3</v>
       </c>
@@ -2809,7 +2869,9 @@
         <v>85</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -2839,7 +2901,9 @@
         <v>77</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H44" s="3">
         <v>3</v>
       </c>
@@ -2871,7 +2935,9 @@
         <v>207</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H45" s="3">
         <v>2</v>
       </c>
@@ -2903,7 +2969,9 @@
         <v>95</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H46" s="3">
         <v>10</v>
       </c>
@@ -2933,7 +3001,9 @@
         <v>102</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -2961,7 +3031,9 @@
         <v>23</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -2991,7 +3063,9 @@
         <v>95</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H49" s="3">
         <v>3</v>
       </c>
@@ -3023,7 +3097,9 @@
         <v>131</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H50" s="3">
         <v>2</v>
       </c>
@@ -3055,7 +3131,9 @@
         <v>102</v>
       </c>
       <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -3085,7 +3163,9 @@
         <v>35</v>
       </c>
       <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="G52" s="3" t="s">
+        <v>259</v>
+      </c>
       <c r="H52" s="3">
         <v>3</v>
       </c>

--- a/data/spreadsheets/Event.xlsx
+++ b/data/spreadsheets/Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7121B7-0AC3-F64C-8B43-2BF13C518BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4271490A-FB8B-8F44-92C8-3FEDED9DE3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24400" yWindow="500" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="960" windowWidth="57540" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="260">
   <si>
     <t>ID</t>
   </si>
@@ -945,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -971,10 +971,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -989,6 +985,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1093,6 +1099,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N52" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:N52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N52">
+    <sortCondition ref="D1:D52"/>
+  </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
@@ -1295,8 +1304,8 @@
   <dimension ref="A1:N216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9:G32"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -1356,7 +1365,7 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="18" t="s">
         <v>256</v>
       </c>
     </row>
@@ -1466,37 +1475,37 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H5" s="3">
-        <v>6</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="M5" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>257</v>
@@ -1504,23 +1513,23 @@
     </row>
     <row r="6" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1529,67 +1538,63 @@
         <v>24</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="K7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="3"/>
@@ -1599,90 +1604,86 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>53</v>
+      <c r="L8" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>58</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H9" s="3">
-        <v>4</v>
-      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="6"/>
+      <c r="K9" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L9" s="3" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>64</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H10" s="3">
-        <v>3</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L10" s="3" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>257</v>
@@ -1690,75 +1691,71 @@
     </row>
     <row r="11" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="3" t="s">
-        <v>71</v>
+      <c r="K11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="F12" s="19"/>
       <c r="G12" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="3" t="s">
-        <v>80</v>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>257</v>
@@ -1766,23 +1763,23 @@
     </row>
     <row r="13" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="F13" s="19"/>
       <c r="G13" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1790,9 +1787,9 @@
       <c r="K13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="3" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>257</v>
@@ -1800,23 +1797,23 @@
     </row>
     <row r="14" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="19"/>
       <c r="G14" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1824,11 +1821,9 @@
       <c r="K14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>257</v>
@@ -1836,73 +1831,65 @@
     </row>
     <row r="15" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="F15" s="19"/>
       <c r="G15" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K15" s="6"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="8"/>
       <c r="L15" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>102</v>
+        <v>158</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>257</v>
@@ -1910,75 +1897,61 @@
     </row>
     <row r="17" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>259</v>
-      </c>
+      <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>112</v>
+        <v>224</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>259</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="11"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>257</v>
@@ -1986,35 +1959,29 @@
     </row>
     <row r="19" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>259</v>
-      </c>
+      <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>257</v>
@@ -2022,37 +1989,31 @@
     </row>
     <row r="20" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F20" s="3"/>
-      <c r="G20" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="L20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>257</v>
@@ -2060,147 +2021,119 @@
     </row>
     <row r="21" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>259</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="3">
         <v>2</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" t="s">
-        <v>133</v>
-      </c>
+      <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>102</v>
+        <v>158</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>10</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
       <c r="N22" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H23" s="3">
-        <v>3</v>
-      </c>
-      <c r="I23" s="7"/>
+        <v>102</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="M23" s="3"/>
       <c r="N23" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>257</v>
@@ -2208,35 +2141,31 @@
     </row>
     <row r="25" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>153</v>
-      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>257</v>
@@ -2244,33 +2173,31 @@
     </row>
     <row r="26" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="F26" s="3"/>
-      <c r="G26" s="3" t="s">
-        <v>259</v>
-      </c>
+      <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>257</v>
@@ -2278,73 +2205,61 @@
     </row>
     <row r="27" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H27" s="3">
-        <v>2</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>259</v>
-      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>257</v>
@@ -2352,37 +2267,35 @@
     </row>
     <row r="29" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H29" s="3">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="19"/>
       <c r="L29" s="3" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>257</v>
@@ -2390,34 +2303,32 @@
     </row>
     <row r="30" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3" t="s">
-        <v>177</v>
+        <v>95</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" t="s">
+        <v>97</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>98</v>
@@ -2428,35 +2339,35 @@
     </row>
     <row r="31" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="M31" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>257</v>
@@ -2464,71 +2375,69 @@
     </row>
     <row r="32" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="3" t="s">
-        <v>258</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>188</v>
+      <c r="I33" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>257</v>
@@ -2536,33 +2445,35 @@
     </row>
     <row r="34" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="3" t="s">
-        <v>258</v>
-      </c>
+      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3" t="s">
+      <c r="I34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="J34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="M34" s="3" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>257</v>
@@ -2570,71 +2481,69 @@
     </row>
     <row r="35" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F35" s="6"/>
-      <c r="G35" s="3" t="s">
-        <v>259</v>
-      </c>
+      <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="K35" s="3"/>
-      <c r="L35" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="L35" s="8"/>
       <c r="M35" s="3" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>41</v>
+        <v>76</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="3" t="s">
-        <v>258</v>
-      </c>
+      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
+      <c r="I36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="J36" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="12" t="s">
+        <v>209</v>
+      </c>
       <c r="M36" s="3" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>257</v>
@@ -2642,73 +2551,69 @@
     </row>
     <row r="37" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>79</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
+        <v>6</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>208</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3">
+        <v>2</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="14" t="s">
-        <v>209</v>
+      <c r="L38" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>257</v>
@@ -2716,37 +2621,35 @@
     </row>
     <row r="39" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>259</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="K39" s="19"/>
       <c r="L39" s="3" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>257</v>
@@ -2754,33 +2657,35 @@
     </row>
     <row r="40" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H40" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3">
+        <v>3</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" t="s">
-        <v>218</v>
+      <c r="K40" s="19"/>
+      <c r="L40" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>257</v>
@@ -2788,65 +2693,71 @@
     </row>
     <row r="41" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>220</v>
+        <v>67</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H41" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
+        <v>3</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M41" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>225</v>
+        <v>111</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
-        <v>259</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="3"/>
       <c r="H42" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="J42" s="19"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="L42" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="M42" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>257</v>
@@ -2854,31 +2765,35 @@
     </row>
     <row r="43" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H43" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3">
+        <v>2</v>
+      </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="L43" t="s">
+        <v>133</v>
+      </c>
       <c r="M43" s="3" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>257</v>
@@ -2886,33 +2801,33 @@
     </row>
     <row r="44" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3" t="s">
-        <v>259</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="3"/>
       <c r="H44" s="3">
         <v>3</v>
       </c>
-      <c r="I44" s="3"/>
+      <c r="I44" s="7"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>257</v>
@@ -2920,33 +2835,35 @@
     </row>
     <row r="45" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3" t="s">
-        <v>259</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="3"/>
       <c r="H45" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="M45" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>257</v>
@@ -2954,93 +2871,105 @@
     </row>
     <row r="46" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3" t="s">
-        <v>259</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="3"/>
       <c r="H46" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
+      <c r="M46" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="N46" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H47" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+      <c r="L47" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="N47" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H48" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+      <c r="L48" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="M48" s="3" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>257</v>
@@ -3048,33 +2977,35 @@
     </row>
     <row r="49" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3" t="s">
-        <v>259</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G49" s="3"/>
       <c r="H49" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
+      <c r="L49" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="M49" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>257</v>
@@ -3082,24 +3013,24 @@
     </row>
     <row r="50" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3" t="s">
-        <v>259</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G50" s="3"/>
       <c r="H50" s="3">
         <v>2</v>
       </c>
@@ -3108,7 +3039,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>257</v>
@@ -3116,31 +3047,33 @@
     </row>
     <row r="51" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H51" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3">
+        <v>2</v>
+      </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>257</v>
@@ -3148,33 +3081,35 @@
     </row>
     <row r="52" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3" t="s">
-        <v>259</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="G52" s="3"/>
       <c r="H52" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="L52" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="M52" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>257</v>
@@ -3182,315 +3117,315 @@
     </row>
     <row r="83" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="84" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="18"/>
+      <c r="C84" s="16"/>
     </row>
     <row r="85" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="86" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="14"/>
+      <c r="C86" s="12"/>
     </row>
     <row r="87" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="14"/>
+      <c r="C87" s="12"/>
     </row>
     <row r="88" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="14"/>
+      <c r="C88" s="12"/>
     </row>
     <row r="89" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="90" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="18"/>
+      <c r="C90" s="16"/>
     </row>
     <row r="91" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="92" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="14"/>
+      <c r="C92" s="12"/>
     </row>
     <row r="93" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="14"/>
+      <c r="C93" s="12"/>
     </row>
     <row r="94" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="14"/>
+      <c r="C94" s="12"/>
     </row>
     <row r="95" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="18"/>
+      <c r="C96" s="16"/>
     </row>
     <row r="97" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="14"/>
+      <c r="C98" s="12"/>
     </row>
     <row r="99" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="14"/>
+      <c r="C99" s="12"/>
     </row>
     <row r="100" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="14"/>
+      <c r="C100" s="12"/>
     </row>
     <row r="101" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="102" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="18"/>
+      <c r="C102" s="16"/>
     </row>
     <row r="103" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="104" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="14"/>
+      <c r="C104" s="12"/>
     </row>
     <row r="105" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="14"/>
+      <c r="C105" s="12"/>
     </row>
     <row r="106" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="14"/>
+      <c r="C106" s="12"/>
     </row>
     <row r="107" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="108" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="18"/>
+      <c r="C108" s="16"/>
     </row>
     <row r="109" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="110" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="14"/>
+      <c r="C110" s="12"/>
     </row>
     <row r="111" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="14"/>
+      <c r="C111" s="12"/>
     </row>
     <row r="112" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="14"/>
+      <c r="C112" s="12"/>
     </row>
     <row r="113" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="18"/>
+      <c r="C114" s="16"/>
     </row>
     <row r="115" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="116" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="14"/>
+      <c r="C116" s="12"/>
     </row>
     <row r="117" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="14"/>
+      <c r="C117" s="12"/>
     </row>
     <row r="118" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="14"/>
+      <c r="C118" s="12"/>
     </row>
     <row r="119" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="120" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="19"/>
+      <c r="C120" s="17"/>
     </row>
     <row r="121" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="122" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="18"/>
+      <c r="C122" s="16"/>
     </row>
     <row r="123" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="124" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="14"/>
+      <c r="C124" s="12"/>
     </row>
     <row r="125" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="14"/>
+      <c r="C125" s="12"/>
     </row>
     <row r="126" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="14"/>
+      <c r="C126" s="12"/>
     </row>
     <row r="127" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="128" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="18"/>
+      <c r="C128" s="16"/>
     </row>
     <row r="129" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="14"/>
+      <c r="C130" s="12"/>
     </row>
     <row r="131" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="14"/>
+      <c r="C131" s="12"/>
     </row>
     <row r="132" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="14"/>
+      <c r="C132" s="12"/>
     </row>
     <row r="133" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="134" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="18"/>
+      <c r="C134" s="16"/>
     </row>
     <row r="135" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="136" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="14"/>
+      <c r="C136" s="12"/>
     </row>
     <row r="137" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="14"/>
+      <c r="C137" s="12"/>
     </row>
     <row r="138" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="14"/>
+      <c r="C138" s="12"/>
     </row>
     <row r="139" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="140" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="18"/>
+      <c r="C140" s="16"/>
     </row>
     <row r="141" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="142" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="14"/>
+      <c r="C142" s="12"/>
     </row>
     <row r="143" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="14"/>
+      <c r="C143" s="12"/>
     </row>
     <row r="144" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="14"/>
+      <c r="C144" s="12"/>
     </row>
     <row r="145" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="146" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C146" s="18"/>
+      <c r="C146" s="16"/>
     </row>
     <row r="147" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="148" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="14"/>
+      <c r="C148" s="12"/>
     </row>
     <row r="149" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C149" s="14"/>
+      <c r="C149" s="12"/>
     </row>
     <row r="150" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="14"/>
+      <c r="C150" s="12"/>
     </row>
     <row r="151" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="152" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="18"/>
+      <c r="C152" s="16"/>
     </row>
     <row r="153" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="154" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="14"/>
+      <c r="C154" s="12"/>
     </row>
     <row r="155" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C155" s="14"/>
+      <c r="C155" s="12"/>
     </row>
     <row r="156" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C156" s="14"/>
+      <c r="C156" s="12"/>
     </row>
     <row r="157" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="158" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C158" s="18"/>
+      <c r="C158" s="16"/>
     </row>
     <row r="159" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="160" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="14"/>
+      <c r="C160" s="12"/>
     </row>
     <row r="161" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="14"/>
+      <c r="C161" s="12"/>
     </row>
     <row r="162" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="14"/>
+      <c r="C162" s="12"/>
     </row>
     <row r="163" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="164" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C164" s="18"/>
+      <c r="C164" s="16"/>
     </row>
     <row r="165" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="166" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="14"/>
+      <c r="C166" s="12"/>
     </row>
     <row r="167" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C167" s="14"/>
+      <c r="C167" s="12"/>
     </row>
     <row r="168" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C168" s="14"/>
+      <c r="C168" s="12"/>
     </row>
     <row r="169" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="170" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C170" s="18"/>
+      <c r="C170" s="16"/>
     </row>
     <row r="171" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="172" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C172" s="14"/>
+      <c r="C172" s="12"/>
     </row>
     <row r="173" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C173" s="14"/>
+      <c r="C173" s="12"/>
     </row>
     <row r="174" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C174" s="14"/>
+      <c r="C174" s="12"/>
     </row>
     <row r="175" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="176" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C176" s="18"/>
+      <c r="C176" s="16"/>
     </row>
     <row r="177" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="178" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="14"/>
+      <c r="C178" s="12"/>
     </row>
     <row r="179" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="14"/>
+      <c r="C179" s="12"/>
     </row>
     <row r="180" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="14"/>
+      <c r="C180" s="12"/>
     </row>
     <row r="181" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="182" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C182" s="18"/>
+      <c r="C182" s="16"/>
     </row>
     <row r="183" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="184" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C184" s="14"/>
+      <c r="C184" s="12"/>
     </row>
     <row r="185" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C185" s="14"/>
+      <c r="C185" s="12"/>
     </row>
     <row r="186" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C186" s="14"/>
+      <c r="C186" s="12"/>
     </row>
     <row r="187" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="188" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C188" s="18"/>
+      <c r="C188" s="16"/>
     </row>
     <row r="189" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="190" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C190" s="14"/>
+      <c r="C190" s="12"/>
     </row>
     <row r="191" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C191" s="14"/>
+      <c r="C191" s="12"/>
     </row>
     <row r="192" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C192" s="14"/>
+      <c r="C192" s="12"/>
     </row>
     <row r="193" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="194" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C194" s="18"/>
+      <c r="C194" s="16"/>
     </row>
     <row r="195" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="196" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C196" s="14"/>
+      <c r="C196" s="12"/>
     </row>
     <row r="197" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C197" s="14"/>
+      <c r="C197" s="12"/>
     </row>
     <row r="198" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C198" s="14"/>
+      <c r="C198" s="12"/>
     </row>
     <row r="199" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="200" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C200" s="18"/>
+      <c r="C200" s="16"/>
     </row>
     <row r="201" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="202" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C202" s="14"/>
+      <c r="C202" s="12"/>
     </row>
     <row r="203" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C203" s="14"/>
+      <c r="C203" s="12"/>
     </row>
     <row r="204" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C204" s="14"/>
+      <c r="C204" s="12"/>
     </row>
     <row r="205" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="206" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C206" s="18"/>
+      <c r="C206" s="16"/>
     </row>
     <row r="207" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="208" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C208" s="14"/>
+      <c r="C208" s="12"/>
     </row>
     <row r="209" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C209" s="14"/>
+      <c r="C209" s="12"/>
     </row>
     <row r="210" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C210" s="14"/>
+      <c r="C210" s="12"/>
     </row>
     <row r="211" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="212" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C212" s="18"/>
+      <c r="C212" s="16"/>
     </row>
     <row r="213" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="214" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C214" s="14"/>
+      <c r="C214" s="12"/>
     </row>
     <row r="215" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C215" s="14"/>
+      <c r="C215" s="12"/>
     </row>
     <row r="216" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C216" s="14"/>
+      <c r="C216" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.511811023622047" footer="0.511811023622047"/>

--- a/data/spreadsheets/Event.xlsx
+++ b/data/spreadsheets/Event.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F731B6-7732-C249-A7C9-15FC555825C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4271490A-FB8B-8F44-92C8-3FEDED9DE3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7380" yWindow="960" windowWidth="57540" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="260">
   <si>
     <t>ID</t>
   </si>
@@ -799,6 +799,12 @@
   </si>
   <si>
     <t>Daniela Subotic, Noémi Villars-Amberg</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -939,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -965,10 +971,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -983,6 +985,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1087,6 +1099,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N52" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:N52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N52">
+    <sortCondition ref="D1:D52"/>
+  </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
@@ -1289,8 +1304,8 @@
   <dimension ref="A1:N216"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N52"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -1350,7 +1365,7 @@
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="18" t="s">
         <v>256</v>
       </c>
     </row>
@@ -1371,8 +1386,8 @@
         <v>17</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="3">
-        <v>1</v>
+      <c r="G2" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1405,8 +1420,8 @@
         <v>23</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="3">
-        <v>0</v>
+      <c r="G3" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1441,8 +1456,8 @@
         <v>23</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="3">
-        <v>1</v>
+      <c r="G4" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1460,35 +1475,37 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3">
-        <v>6</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="M5" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>257</v>
@@ -1496,23 +1513,23 @@
     </row>
     <row r="6" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>1</v>
+      <c r="G6" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1521,154 +1538,152 @@
         <v>24</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="K7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="3"/>
       <c r="M7" s="3" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="G8" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="4" t="s">
-        <v>53</v>
+      <c r="L8" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3">
-        <v>4</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="6"/>
+      <c r="K9" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L9" s="3" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3">
-        <v>3</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="L10" s="3" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>257</v>
@@ -1676,71 +1691,71 @@
     </row>
     <row r="11" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3">
-        <v>3</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="3" t="s">
-        <v>71</v>
+      <c r="K11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>187</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" s="6"/>
-      <c r="L12" s="3" t="s">
-        <v>80</v>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>257</v>
@@ -1748,23 +1763,23 @@
     </row>
     <row r="13" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1772,9 +1787,9 @@
       <c r="K13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="3" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>257</v>
@@ -1782,23 +1797,23 @@
     </row>
     <row r="14" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>200</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1806,11 +1821,9 @@
       <c r="K14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="L14" s="3"/>
       <c r="M14" s="3" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>257</v>
@@ -1818,71 +1831,65 @@
     </row>
     <row r="15" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>92</v>
+        <v>215</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+        <v>23</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="3" t="s">
+        <v>258</v>
+      </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K15" s="6"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="8"/>
       <c r="L15" t="s">
-        <v>97</v>
+        <v>218</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>157</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>102</v>
+        <v>158</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>257</v>
@@ -1890,71 +1897,61 @@
     </row>
     <row r="17" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>104</v>
+        <v>220</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="L17" s="3"/>
       <c r="M17" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>112</v>
+        <v>224</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="11"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="L18" s="3"/>
       <c r="M18" s="3" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>257</v>
@@ -1962,33 +1959,29 @@
     </row>
     <row r="19" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>117</v>
+        <v>227</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>257</v>
@@ -1996,35 +1989,31 @@
     </row>
     <row r="20" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>123</v>
+        <v>231</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>125</v>
-      </c>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" s="12" t="s">
-        <v>126</v>
-      </c>
+      <c r="L20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>257</v>
@@ -2032,23 +2021,21 @@
     </row>
     <row r="21" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>128</v>
+        <v>232</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
         <v>2</v>
@@ -2056,117 +2043,97 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" t="s">
-        <v>133</v>
-      </c>
+      <c r="L21" s="3"/>
       <c r="M21" s="3" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>137</v>
+        <v>237</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>102</v>
+        <v>158</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <v>10</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
       <c r="N22" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>140</v>
+        <v>238</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>144</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <v>3</v>
-      </c>
-      <c r="I23" s="7"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
-        <v>145</v>
-      </c>
+      <c r="M23" s="3"/>
       <c r="N23" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>144</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3">
-        <v>3</v>
-      </c>
+      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="L24" s="3"/>
       <c r="M24" s="3" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>257</v>
@@ -2174,35 +2141,31 @@
     </row>
     <row r="25" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>3</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>153</v>
-      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>257</v>
@@ -2210,31 +2173,31 @@
     </row>
     <row r="26" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>157</v>
+        <v>249</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>257</v>
@@ -2242,69 +2205,61 @@
     </row>
     <row r="27" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>160</v>
+        <v>251</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3">
-        <v>2</v>
-      </c>
+      <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="N27" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>164</v>
+        <v>254</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="L28" s="3"/>
       <c r="M28" s="3" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>257</v>
@@ -2312,35 +2267,35 @@
     </row>
     <row r="29" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>169</v>
+        <v>74</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>170</v>
+        <v>75</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>171</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F29" s="8"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K29" s="19"/>
       <c r="L29" s="3" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>257</v>
@@ -2348,32 +2303,32 @@
     </row>
     <row r="30" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>174</v>
+        <v>93</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>175</v>
+        <v>94</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>176</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F30" s="8"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3">
-        <v>2</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3" t="s">
-        <v>177</v>
+      <c r="H30" s="3"/>
+      <c r="I30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" t="s">
+        <v>97</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>98</v>
@@ -2384,33 +2339,35 @@
     </row>
     <row r="31" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>179</v>
+        <v>105</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>181</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F31" s="8"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="L31" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="M31" s="3" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>257</v>
@@ -2418,69 +2375,69 @@
     </row>
     <row r="32" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>18</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F32" s="8"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="3">
-        <v>2</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>185</v>
+        <v>121</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>187</v>
+        <v>123</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>188</v>
+      <c r="I33" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>257</v>
@@ -2488,33 +2445,35 @@
     </row>
     <row r="34" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
+      <c r="G34" s="3"/>
       <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3" t="s">
+      <c r="I34" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="J34" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="M34" s="3" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="N34" s="1" t="s">
         <v>257</v>
@@ -2522,19 +2481,19 @@
     </row>
     <row r="35" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="3"/>
@@ -2543,48 +2502,48 @@
         <v>24</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="K35" s="3"/>
-      <c r="L35" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="L35" s="8"/>
       <c r="M35" s="3" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>41</v>
+        <v>76</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
+      <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
+      <c r="I36" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L36" s="3"/>
+      <c r="J36" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="12" t="s">
+        <v>209</v>
+      </c>
       <c r="M36" s="3" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>257</v>
@@ -2592,69 +2551,69 @@
     </row>
     <row r="37" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>79</v>
-      </c>
+      <c r="H37" s="3">
+        <v>6</v>
+      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="N37" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>205</v>
+        <v>45</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>206</v>
+        <v>46</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="F38" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>208</v>
-      </c>
+      <c r="H38" s="3">
+        <v>2</v>
+      </c>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-      <c r="L38" s="14" t="s">
-        <v>209</v>
+      <c r="L38" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>257</v>
@@ -2662,35 +2621,35 @@
     </row>
     <row r="39" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+      <c r="K39" s="19"/>
       <c r="L39" s="3" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="N39" s="1" t="s">
         <v>257</v>
@@ -2698,33 +2657,35 @@
     </row>
     <row r="40" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>215</v>
+        <v>61</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="3">
-        <v>1</v>
-      </c>
-      <c r="H40" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3">
+        <v>3</v>
+      </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" t="s">
-        <v>218</v>
+      <c r="K40" s="19"/>
+      <c r="L40" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>257</v>
@@ -2732,61 +2693,71 @@
     </row>
     <row r="41" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>220</v>
+        <v>67</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>221</v>
+        <v>68</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
+      <c r="H41" s="3">
+        <v>3</v>
+      </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="M41" s="3" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>225</v>
+        <v>111</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F42" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
+      <c r="J42" s="19"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="L42" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="M42" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>257</v>
@@ -2794,29 +2765,35 @@
     </row>
     <row r="43" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>226</v>
+        <v>128</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>228</v>
+        <v>130</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
+      <c r="H43" s="3">
+        <v>2</v>
+      </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="L43" t="s">
+        <v>133</v>
+      </c>
       <c r="M43" s="3" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>257</v>
@@ -2824,31 +2801,33 @@
     </row>
     <row r="44" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>229</v>
+        <v>140</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3">
         <v>3</v>
       </c>
-      <c r="I44" s="3"/>
+      <c r="I44" s="7"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>257</v>
@@ -2856,31 +2835,35 @@
     </row>
     <row r="45" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>232</v>
+        <v>146</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F45" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="L45" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="M45" s="3" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>257</v>
@@ -2888,87 +2871,105 @@
     </row>
     <row r="46" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
+      <c r="M46" s="3" t="s">
+        <v>120</v>
+      </c>
       <c r="N46" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="H47" s="3">
+        <v>2</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
+      <c r="L47" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="N47" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F48" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>171</v>
+      </c>
       <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+      <c r="L48" s="3" t="s">
+        <v>172</v>
+      </c>
       <c r="M48" s="3" t="s">
-        <v>219</v>
+        <v>66</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>257</v>
@@ -2976,31 +2977,35 @@
     </row>
     <row r="49" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>244</v>
+        <v>173</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>245</v>
+        <v>174</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
+      <c r="L49" s="3" t="s">
+        <v>177</v>
+      </c>
       <c r="M49" s="3" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>257</v>
@@ -3008,21 +3013,23 @@
     </row>
     <row r="50" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>247</v>
+        <v>178</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F50" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>181</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3">
         <v>2</v>
@@ -3032,7 +3039,7 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>257</v>
@@ -3040,29 +3047,33 @@
     </row>
     <row r="51" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>252</v>
+        <v>184</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="H51" s="3">
+        <v>2</v>
+      </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="N51" s="1" t="s">
         <v>257</v>
@@ -3070,31 +3081,35 @@
     </row>
     <row r="52" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F52" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>132</v>
+      </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="L52" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="M52" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>257</v>
@@ -3102,315 +3117,315 @@
     </row>
     <row r="83" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="84" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C84" s="18"/>
+      <c r="C84" s="16"/>
     </row>
     <row r="85" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="86" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C86" s="14"/>
+      <c r="C86" s="12"/>
     </row>
     <row r="87" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C87" s="14"/>
+      <c r="C87" s="12"/>
     </row>
     <row r="88" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C88" s="14"/>
+      <c r="C88" s="12"/>
     </row>
     <row r="89" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="90" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C90" s="18"/>
+      <c r="C90" s="16"/>
     </row>
     <row r="91" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="92" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C92" s="14"/>
+      <c r="C92" s="12"/>
     </row>
     <row r="93" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C93" s="14"/>
+      <c r="C93" s="12"/>
     </row>
     <row r="94" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C94" s="14"/>
+      <c r="C94" s="12"/>
     </row>
     <row r="95" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="96" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C96" s="18"/>
+      <c r="C96" s="16"/>
     </row>
     <row r="97" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C98" s="14"/>
+      <c r="C98" s="12"/>
     </row>
     <row r="99" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C99" s="14"/>
+      <c r="C99" s="12"/>
     </row>
     <row r="100" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C100" s="14"/>
+      <c r="C100" s="12"/>
     </row>
     <row r="101" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="102" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C102" s="18"/>
+      <c r="C102" s="16"/>
     </row>
     <row r="103" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="104" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C104" s="14"/>
+      <c r="C104" s="12"/>
     </row>
     <row r="105" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C105" s="14"/>
+      <c r="C105" s="12"/>
     </row>
     <row r="106" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C106" s="14"/>
+      <c r="C106" s="12"/>
     </row>
     <row r="107" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="108" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C108" s="18"/>
+      <c r="C108" s="16"/>
     </row>
     <row r="109" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="110" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C110" s="14"/>
+      <c r="C110" s="12"/>
     </row>
     <row r="111" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C111" s="14"/>
+      <c r="C111" s="12"/>
     </row>
     <row r="112" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C112" s="14"/>
+      <c r="C112" s="12"/>
     </row>
     <row r="113" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="114" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C114" s="18"/>
+      <c r="C114" s="16"/>
     </row>
     <row r="115" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="116" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C116" s="14"/>
+      <c r="C116" s="12"/>
     </row>
     <row r="117" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C117" s="14"/>
+      <c r="C117" s="12"/>
     </row>
     <row r="118" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C118" s="14"/>
+      <c r="C118" s="12"/>
     </row>
     <row r="119" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="120" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C120" s="19"/>
+      <c r="C120" s="17"/>
     </row>
     <row r="121" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="122" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C122" s="18"/>
+      <c r="C122" s="16"/>
     </row>
     <row r="123" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="124" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C124" s="14"/>
+      <c r="C124" s="12"/>
     </row>
     <row r="125" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C125" s="14"/>
+      <c r="C125" s="12"/>
     </row>
     <row r="126" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C126" s="14"/>
+      <c r="C126" s="12"/>
     </row>
     <row r="127" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="128" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C128" s="18"/>
+      <c r="C128" s="16"/>
     </row>
     <row r="129" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="130" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C130" s="14"/>
+      <c r="C130" s="12"/>
     </row>
     <row r="131" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C131" s="14"/>
+      <c r="C131" s="12"/>
     </row>
     <row r="132" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C132" s="14"/>
+      <c r="C132" s="12"/>
     </row>
     <row r="133" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="134" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C134" s="18"/>
+      <c r="C134" s="16"/>
     </row>
     <row r="135" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="136" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C136" s="14"/>
+      <c r="C136" s="12"/>
     </row>
     <row r="137" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C137" s="14"/>
+      <c r="C137" s="12"/>
     </row>
     <row r="138" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C138" s="14"/>
+      <c r="C138" s="12"/>
     </row>
     <row r="139" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="140" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="18"/>
+      <c r="C140" s="16"/>
     </row>
     <row r="141" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="142" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="14"/>
+      <c r="C142" s="12"/>
     </row>
     <row r="143" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="14"/>
+      <c r="C143" s="12"/>
     </row>
     <row r="144" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="14"/>
+      <c r="C144" s="12"/>
     </row>
     <row r="145" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="146" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C146" s="18"/>
+      <c r="C146" s="16"/>
     </row>
     <row r="147" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="148" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="14"/>
+      <c r="C148" s="12"/>
     </row>
     <row r="149" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C149" s="14"/>
+      <c r="C149" s="12"/>
     </row>
     <row r="150" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="14"/>
+      <c r="C150" s="12"/>
     </row>
     <row r="151" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="152" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="18"/>
+      <c r="C152" s="16"/>
     </row>
     <row r="153" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="154" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="14"/>
+      <c r="C154" s="12"/>
     </row>
     <row r="155" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C155" s="14"/>
+      <c r="C155" s="12"/>
     </row>
     <row r="156" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C156" s="14"/>
+      <c r="C156" s="12"/>
     </row>
     <row r="157" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="158" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C158" s="18"/>
+      <c r="C158" s="16"/>
     </row>
     <row r="159" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="160" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="14"/>
+      <c r="C160" s="12"/>
     </row>
     <row r="161" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="14"/>
+      <c r="C161" s="12"/>
     </row>
     <row r="162" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="14"/>
+      <c r="C162" s="12"/>
     </row>
     <row r="163" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="164" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C164" s="18"/>
+      <c r="C164" s="16"/>
     </row>
     <row r="165" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="166" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="14"/>
+      <c r="C166" s="12"/>
     </row>
     <row r="167" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C167" s="14"/>
+      <c r="C167" s="12"/>
     </row>
     <row r="168" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C168" s="14"/>
+      <c r="C168" s="12"/>
     </row>
     <row r="169" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="170" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C170" s="18"/>
+      <c r="C170" s="16"/>
     </row>
     <row r="171" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="172" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C172" s="14"/>
+      <c r="C172" s="12"/>
     </row>
     <row r="173" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C173" s="14"/>
+      <c r="C173" s="12"/>
     </row>
     <row r="174" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C174" s="14"/>
+      <c r="C174" s="12"/>
     </row>
     <row r="175" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="176" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C176" s="18"/>
+      <c r="C176" s="16"/>
     </row>
     <row r="177" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="178" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="14"/>
+      <c r="C178" s="12"/>
     </row>
     <row r="179" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="14"/>
+      <c r="C179" s="12"/>
     </row>
     <row r="180" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="14"/>
+      <c r="C180" s="12"/>
     </row>
     <row r="181" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="182" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C182" s="18"/>
+      <c r="C182" s="16"/>
     </row>
     <row r="183" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="184" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C184" s="14"/>
+      <c r="C184" s="12"/>
     </row>
     <row r="185" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C185" s="14"/>
+      <c r="C185" s="12"/>
     </row>
     <row r="186" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C186" s="14"/>
+      <c r="C186" s="12"/>
     </row>
     <row r="187" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="188" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C188" s="18"/>
+      <c r="C188" s="16"/>
     </row>
     <row r="189" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="190" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C190" s="14"/>
+      <c r="C190" s="12"/>
     </row>
     <row r="191" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C191" s="14"/>
+      <c r="C191" s="12"/>
     </row>
     <row r="192" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C192" s="14"/>
+      <c r="C192" s="12"/>
     </row>
     <row r="193" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="194" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C194" s="18"/>
+      <c r="C194" s="16"/>
     </row>
     <row r="195" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="196" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C196" s="14"/>
+      <c r="C196" s="12"/>
     </row>
     <row r="197" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C197" s="14"/>
+      <c r="C197" s="12"/>
     </row>
     <row r="198" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C198" s="14"/>
+      <c r="C198" s="12"/>
     </row>
     <row r="199" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="200" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C200" s="18"/>
+      <c r="C200" s="16"/>
     </row>
     <row r="201" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="202" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C202" s="14"/>
+      <c r="C202" s="12"/>
     </row>
     <row r="203" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C203" s="14"/>
+      <c r="C203" s="12"/>
     </row>
     <row r="204" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C204" s="14"/>
+      <c r="C204" s="12"/>
     </row>
     <row r="205" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="206" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C206" s="18"/>
+      <c r="C206" s="16"/>
     </row>
     <row r="207" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="208" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C208" s="14"/>
+      <c r="C208" s="12"/>
     </row>
     <row r="209" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C209" s="14"/>
+      <c r="C209" s="12"/>
     </row>
     <row r="210" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C210" s="14"/>
+      <c r="C210" s="12"/>
     </row>
     <row r="211" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="212" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C212" s="18"/>
+      <c r="C212" s="16"/>
     </row>
     <row r="213" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="214" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C214" s="14"/>
+      <c r="C214" s="12"/>
     </row>
     <row r="215" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C215" s="14"/>
+      <c r="C215" s="12"/>
     </row>
     <row r="216" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C216" s="14"/>
+      <c r="C216" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.511811023622047" footer="0.511811023622047"/>

--- a/data/spreadsheets/Event.xlsx
+++ b/data/spreadsheets/Event.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F731B6-7732-C249-A7C9-15FC555825C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E036162F-F811-B643-B989-57A9326C09FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9060" yWindow="580" windowWidth="59200" windowHeight="27580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -702,9 +702,6 @@
     <t>DaSCH Query Challenge</t>
   </si>
   <si>
-    <t>Alice is quizzed by the Red Node and White Interface on the structure of DaSCHland's metadata and data streams, struggling to keep up with the nonsensical logic.</t>
-  </si>
-  <si>
     <t>EV_042</t>
   </si>
   <si>
@@ -720,18 +717,12 @@
     <t>Chaotic DaSCH Dinner</t>
   </si>
   <si>
-    <t>Queen Alice attends a chaotic dinner party in DaSCHland, where the Red Node and White Interface cause data packets to overlap, creating a frenzy of mismatched metadata.</t>
-  </si>
-  <si>
     <t>EV_044</t>
   </si>
   <si>
     <t>DaSCH System Shutdown</t>
   </si>
   <si>
-    <t>Alice grabs the Red Node, which suddenly transforms into her home system's glitchy black kitten, and the DaSCH interface collapses as Alice wakes from the simulation.</t>
-  </si>
-  <si>
     <t>EV_045</t>
   </si>
   <si>
@@ -762,21 +753,12 @@
     <t>EV_048</t>
   </si>
   <si>
-    <t>Twin Dataset Argument</t>
-  </si>
-  <si>
-    <t>In DaSCHland, Alice encounters two identical datasets, Tweedledum and Tweedledee, who engage in a nonsensical debate over a corrupt file that both claim ownership of.</t>
-  </si>
-  <si>
     <t>EV_049</t>
   </si>
   <si>
     <t>DaSCH Entity Assistance</t>
   </si>
   <si>
-    <t>Alice is helped by the White Algorithm, who shares stories of failed data models and helps her refine her search queries within the DaSCH environment.</t>
-  </si>
-  <si>
     <t>EV_050</t>
   </si>
   <si>
@@ -792,13 +774,31 @@
     <t>DaSCHland Banquet Breakdown</t>
   </si>
   <si>
-    <t>Alice attends a disorganized data synchronization event in DaSCHland, where the Red Node and White Interface attempt to integrate data streams but create chaos.</t>
-  </si>
-  <si>
     <t>Authorship Resource</t>
   </si>
   <si>
     <t>Daniela Subotic, Noémi Villars-Amberg</t>
+  </si>
+  <si>
+    <t>Alice is quizzed by the The Digi-Queen and Control Interface on the structure of DaSCHland's metadata and data streams, struggling to keep up with the nonsensical logic.</t>
+  </si>
+  <si>
+    <t>Queen Alice attends a chaotic dinner party in DaSCHland, where The Digi-Queen and Control Interface cause data packets to overlap, creating a frenzy of mismatched metadata.</t>
+  </si>
+  <si>
+    <t>Alice grabs The Digi-Queen, which suddenly transforms into her home system's glitchy Bit-Kitten, and the DaSCH interface collapses as Alice wakes from the simulation.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Alice encounters the identical datasets known as Duplicate Data, who engage in a nonsensical debate over a corrupt file that both claim ownership of.</t>
+  </si>
+  <si>
+    <t>Duplicate Data Argument</t>
+  </si>
+  <si>
+    <t>Alice is helped by The Encryption Key, who shares stories of failed data models and helps her refine her search queries within the DaSCH environment.</t>
+  </si>
+  <si>
+    <t>Alice attends a disorganized data synchronization event in DaSCHland, where The Digi-Queen and Control Interface attempt to integrate data streams but create chaos.</t>
   </si>
 </sst>
 </file>
@@ -1288,9 +1288,9 @@
   </sheetPr>
   <dimension ref="A1:N216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N52"/>
+    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -1351,7 +1351,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1385,7 +1385,7 @@
         <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1421,7 +1421,7 @@
         <v>19</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,7 +1457,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1491,7 +1491,7 @@
         <v>37</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1527,7 +1527,7 @@
         <v>43</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1563,7 +1563,7 @@
         <v>49</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>54</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1635,7 +1635,7 @@
         <v>60</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1671,7 +1671,7 @@
         <v>66</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1707,7 +1707,7 @@
         <v>72</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1743,7 +1743,7 @@
         <v>81</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1777,7 +1777,7 @@
         <v>86</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1813,7 +1813,7 @@
         <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1849,7 +1849,7 @@
         <v>98</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1885,7 +1885,7 @@
         <v>98</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1921,7 +1921,7 @@
         <v>109</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1957,7 +1957,7 @@
         <v>115</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1991,7 +1991,7 @@
         <v>120</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2027,7 +2027,7 @@
         <v>127</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2063,7 +2063,7 @@
         <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2099,7 +2099,7 @@
         <v>139</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2133,7 +2133,7 @@
         <v>145</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2169,7 +2169,7 @@
         <v>139</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2205,7 +2205,7 @@
         <v>154</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2237,7 +2237,7 @@
         <v>60</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2271,7 +2271,7 @@
         <v>120</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2307,7 +2307,7 @@
         <v>54</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2343,7 +2343,7 @@
         <v>66</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2379,7 +2379,7 @@
         <v>98</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2413,7 +2413,7 @@
         <v>127</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2447,7 +2447,7 @@
         <v>43</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2483,7 +2483,7 @@
         <v>19</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2517,7 +2517,7 @@
         <v>19</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2553,7 +2553,7 @@
         <v>197</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2587,7 +2587,7 @@
         <v>49</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2621,7 +2621,7 @@
         <v>86</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2657,7 +2657,7 @@
         <v>210</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2693,7 +2693,7 @@
         <v>134</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.15">
@@ -2727,7 +2727,7 @@
         <v>219</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2757,7 +2757,7 @@
         <v>91</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2768,7 +2768,7 @@
         <v>224</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>158</v>
@@ -2789,18 +2789,18 @@
         <v>145</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>228</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>158</v>
@@ -2819,18 +2819,18 @@
         <v>86</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="C44" s="3" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>158</v>
@@ -2851,18 +2851,18 @@
         <v>197</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>158</v>
@@ -2883,18 +2883,18 @@
         <v>154</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>158</v>
@@ -2913,18 +2913,18 @@
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>158</v>
@@ -2941,18 +2941,18 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>158</v>
@@ -2971,18 +2971,18 @@
         <v>219</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>158</v>
@@ -3003,18 +3003,18 @@
         <v>109</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>158</v>
@@ -3035,18 +3035,18 @@
         <v>134</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>158</v>
@@ -3065,18 +3065,18 @@
         <v>139</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>158</v>
@@ -3097,7 +3097,7 @@
         <v>139</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/data/spreadsheets/Event.xlsx
+++ b/data/spreadsheets/Event.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4271490A-FB8B-8F44-92C8-3FEDED9DE3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CB90EB-E7CE-1248-9D6B-A934C419D3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="960" windowWidth="57540" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9860" yWindow="960" windowWidth="57540" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -702,9 +702,6 @@
     <t>DaSCH Query Challenge</t>
   </si>
   <si>
-    <t>Alice is quizzed by the Red Node and White Interface on the structure of DaSCHland's metadata and data streams, struggling to keep up with the nonsensical logic.</t>
-  </si>
-  <si>
     <t>EV_042</t>
   </si>
   <si>
@@ -720,18 +717,12 @@
     <t>Chaotic DaSCH Dinner</t>
   </si>
   <si>
-    <t>Queen Alice attends a chaotic dinner party in DaSCHland, where the Red Node and White Interface cause data packets to overlap, creating a frenzy of mismatched metadata.</t>
-  </si>
-  <si>
     <t>EV_044</t>
   </si>
   <si>
     <t>DaSCH System Shutdown</t>
   </si>
   <si>
-    <t>Alice grabs the Red Node, which suddenly transforms into her home system's glitchy black kitten, and the DaSCH interface collapses as Alice wakes from the simulation.</t>
-  </si>
-  <si>
     <t>EV_045</t>
   </si>
   <si>
@@ -765,18 +756,12 @@
     <t>Twin Dataset Argument</t>
   </si>
   <si>
-    <t>In DaSCHland, Alice encounters two identical datasets, Tweedledum and Tweedledee, who engage in a nonsensical debate over a corrupt file that both claim ownership of.</t>
-  </si>
-  <si>
     <t>EV_049</t>
   </si>
   <si>
     <t>DaSCH Entity Assistance</t>
   </si>
   <si>
-    <t>Alice is helped by the White Algorithm, who shares stories of failed data models and helps her refine her search queries within the DaSCH environment.</t>
-  </si>
-  <si>
     <t>EV_050</t>
   </si>
   <si>
@@ -792,9 +777,6 @@
     <t>DaSCHland Banquet Breakdown</t>
   </si>
   <si>
-    <t>Alice attends a disorganized data synchronization event in DaSCHland, where the Red Node and White Interface attempt to integrate data streams but create chaos.</t>
-  </si>
-  <si>
     <t>Authorship Resource</t>
   </si>
   <si>
@@ -805,6 +787,24 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Alice is quizzed by the The Digi-Queen and Control Interface on the structure of DaSCHland's metadata and data streams, struggling to keep up with the nonsensical logic.</t>
+  </si>
+  <si>
+    <t>Queen Alice attends a chaotic dinner party in DaSCHland, where The Digi-Queen and Control Interface cause data packets to overlap, creating a frenzy of mismatched metadata.</t>
+  </si>
+  <si>
+    <t>Alice grabs The Digi-Queen, which suddenly transforms into her home system's glitchy Bit-Kitten, and the DaSCH interface collapses as Alice wakes from the simulation.</t>
+  </si>
+  <si>
+    <t>In DaSCHland, Alice encounters the identical datasets known as Duplicate Data, who engage in a nonsensical debate over a corrupt file that both claim ownership of.</t>
+  </si>
+  <si>
+    <t>Alice is helped by The Encryption Key, who shares stories of failed data models and helps her refine her search queries within the DaSCH environment.</t>
+  </si>
+  <si>
+    <t>Alice attends a disorganized data synchronization event in DaSCHland, where The Digi-Queen and Control Interface attempt to integrate data streams but create chaos.</t>
   </si>
 </sst>
 </file>
@@ -945,7 +945,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -986,21 +986,38 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1097,15 +1114,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N52" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:N52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:N1048576" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:N1048576" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N52">
-    <sortCondition ref="D1:D52"/>
+    <sortCondition ref="A1:A52"/>
   </sortState>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Event Type"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Event Type List"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Guest ID"/>
@@ -1303,9 +1320,9 @@
   </sheetPr>
   <dimension ref="A1:N216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16:G52"/>
+    <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -1366,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1387,7 +1404,7 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1400,7 +1417,7 @@
         <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1421,7 +1438,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1436,7 +1453,7 @@
         <v>19</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1457,7 +1474,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1472,64 +1489,62 @@
         <v>30</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H5" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>6</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
       <c r="M5" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1538,248 +1553,250 @@
         <v>24</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H7" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="M7" s="3" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>90</v>
+      <c r="L8" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H9" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>4</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="K9" s="6"/>
       <c r="L9" s="3" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="K10" s="6"/>
       <c r="L10" s="3" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>153</v>
+      <c r="K11" s="6"/>
+      <c r="L11" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>154</v>
+        <v>72</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F12" s="19"/>
-      <c r="G12" s="3" t="s">
-        <v>258</v>
-      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>188</v>
+      <c r="I12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>190</v>
+        <v>83</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>191</v>
+        <v>84</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="19"/>
+        <v>85</v>
+      </c>
+      <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
@@ -1787,33 +1804,33 @@
       <c r="K13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="19"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F14" s="19"/>
+      <c r="E14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
@@ -1821,221 +1838,249 @@
       <c r="K14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="M14" s="3" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" t="s">
+        <v>97</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="8"/>
-      <c r="L15" t="s">
-        <v>218</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>23</v>
+      <c r="E16" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3">
-        <v>1</v>
-      </c>
+      <c r="G16" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="M16" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="F17" s="19"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="M17" s="3" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>223</v>
+        <v>110</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>225</v>
+        <v>111</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="3"/>
-      <c r="J18" s="21"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="L18" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="M18" s="3" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="F19" s="19"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
-        <v>229</v>
+        <v>121</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>230</v>
+        <v>122</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>231</v>
+        <v>123</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="F20" s="19"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="8"/>
+      <c r="L20" s="21" t="s">
+        <v>126</v>
+      </c>
       <c r="M20" s="3" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
-        <v>232</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>233</v>
+        <v>129</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>132</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
         <v>2</v>
@@ -2043,457 +2088,485 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="L21" t="s">
+        <v>133</v>
+      </c>
       <c r="M21" s="3" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>236</v>
+        <v>136</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>95</v>
+        <v>16</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3">
-        <v>10</v>
-      </c>
+      <c r="G22" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="K22" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="N22" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>240</v>
+        <v>142</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="3"/>
+        <v>143</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="H23" s="3">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="N23" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>242</v>
+        <v>147</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>243</v>
+        <v>148</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <v>3</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>149</v>
+      </c>
       <c r="M24" s="3" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>244</v>
+        <v>150</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>245</v>
+        <v>151</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>158</v>
+        <v>16</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3">
-        <v>3</v>
-      </c>
+      <c r="G25" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="K25" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="M25" s="3" t="s">
-        <v>109</v>
+        <v>154</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>158</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>131</v>
+        <v>23</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>250</v>
+        <v>159</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>252</v>
+        <v>161</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="L28" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="M28" s="3" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>73</v>
+        <v>168</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K29" s="19"/>
+      <c r="H29" s="3">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
       <c r="L29" s="3" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>92</v>
+        <v>173</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" t="s">
-        <v>97</v>
+      <c r="H30" s="3">
+        <v>2</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>104</v>
+        <v>178</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F31" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>107</v>
-      </c>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="3"/>
-      <c r="L31" s="3" t="s">
-        <v>108</v>
-      </c>
+      <c r="L31" s="3"/>
       <c r="M31" s="3" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F32" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>119</v>
-      </c>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="H33" s="3"/>
-      <c r="I33" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K33" s="3"/>
-      <c r="L33" s="22" t="s">
-        <v>126</v>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="F34" s="6"/>
-      <c r="G34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="H34" s="3"/>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K34" s="3"/>
-      <c r="L34" s="13" t="s">
-        <v>196</v>
-      </c>
+      <c r="L34" s="6"/>
       <c r="M34" s="3" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>76</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="3"/>
@@ -2502,534 +2575,486 @@
         <v>24</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="K35" s="3"/>
-      <c r="L35" s="8"/>
+      <c r="L35" s="13" t="s">
+        <v>196</v>
+      </c>
       <c r="M35" s="3" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>207</v>
+        <v>16</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="F36" s="6"/>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="H36" s="3"/>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="12" t="s">
-        <v>209</v>
-      </c>
+      <c r="L36" s="3"/>
       <c r="M36" s="3" t="s">
-        <v>210</v>
+        <v>49</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F37" s="6"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="3">
-        <v>6</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="L37" s="19"/>
       <c r="M37" s="3" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>46</v>
+        <v>206</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>47</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F38" s="6"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="3">
-        <v>2</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>208</v>
+      </c>
       <c r="K38" s="3"/>
-      <c r="L38" s="4" t="s">
-        <v>48</v>
+      <c r="L38" s="12" t="s">
+        <v>209</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>49</v>
+        <v>210</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>35</v>
+        <v>131</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
-      <c r="K39" s="19"/>
+      <c r="K39" s="3"/>
       <c r="L39" s="3" t="s">
-        <v>59</v>
+        <v>214</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>61</v>
+        <v>215</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>62</v>
+        <v>216</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3">
-        <v>3</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="19"/>
-      <c r="L40" s="3" t="s">
-        <v>65</v>
+      <c r="L40" t="s">
+        <v>218</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>67</v>
+        <v>220</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>68</v>
+        <v>221</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>69</v>
+        <v>222</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F41" s="3"/>
       <c r="G41" s="3"/>
-      <c r="H41" s="3">
-        <v>3</v>
-      </c>
+      <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
       <c r="M41" s="3" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
-        <v>110</v>
+        <v>223</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>112</v>
+        <v>224</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>113</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="19"/>
       <c r="K42" s="3"/>
-      <c r="L42" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="L42" s="3"/>
       <c r="M42" s="3" t="s">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>132</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="F43" s="3"/>
       <c r="G43" s="3"/>
-      <c r="H43" s="3">
-        <v>2</v>
-      </c>
+      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
-      <c r="L43" t="s">
-        <v>133</v>
-      </c>
+      <c r="L43" s="3"/>
       <c r="M43" s="3" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>144</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3">
         <v>3</v>
       </c>
-      <c r="I44" s="7"/>
+      <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+      <c r="L44" s="19"/>
       <c r="M44" s="3" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>146</v>
+        <v>230</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>147</v>
+        <v>231</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>144</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
-      <c r="L45" s="3" t="s">
-        <v>149</v>
-      </c>
+      <c r="L45" s="3"/>
       <c r="M45" s="3" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
-      <c r="M46" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="M46" s="3"/>
       <c r="N46" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>166</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="3">
-        <v>2</v>
-      </c>
+      <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
-      <c r="L47" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
       <c r="N47" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>171</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="3">
-        <v>3</v>
-      </c>
+      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
-      <c r="L48" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="L48" s="3"/>
       <c r="M48" s="3" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>173</v>
+        <v>241</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>176</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-      <c r="L49" s="3" t="s">
-        <v>177</v>
-      </c>
+      <c r="L49" s="3"/>
       <c r="M49" s="3" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>181</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3">
         <v>2</v>
@@ -3039,80 +3064,72 @@
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>183</v>
+        <v>246</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>18</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F51" s="3"/>
       <c r="G51" s="3"/>
-      <c r="H51" s="3">
-        <v>2</v>
-      </c>
+      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>132</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
-      <c r="L52" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="L52" s="3"/>
       <c r="M52" s="3" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="83" spans="3:3" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
